--- a/runningArea/40Missions.xlsx
+++ b/runningArea/40Missions.xlsx
@@ -5266,7 +5266,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5300,7 +5300,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>11</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>13</v>
@@ -5385,7 +5385,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -5436,7 +5436,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B28">
         <v>32</v>
@@ -5470,7 +5470,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B31">
         <v>14</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5538,7 +5538,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>17</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>15</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>19</v>
@@ -5623,7 +5623,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>25</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>27</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>18</v>
@@ -5708,7 +5708,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>37</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -5776,7 +5776,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>23</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>31</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52">
         <v>35</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <v>28</v>
@@ -5912,7 +5912,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56">
         <v>36</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <v>26</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>29</v>
@@ -6014,7 +6014,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>34</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>30</v>
